--- a/Template/Export/Sari_R1_15.xlsx
+++ b/Template/Export/Sari_R1_15.xlsx
@@ -9,20 +9,20 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="15480" windowHeight="7305"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8235"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Hoja1!$A$1:$P$62</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Hoja1!$A$1:$P$63</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Periodicidad por semana epidemiologica</t>
   </si>
@@ -39,23 +39,26 @@
     <t>NACIONAL</t>
   </si>
   <si>
-    <t>Total hospitalizaciones</t>
+    <t>Número de casos IRAG</t>
   </si>
   <si>
-    <t>%  Hospitalización</t>
+    <t>|</t>
   </si>
   <si>
-    <t>Número de casos de IRAG  y % de hospitalizaciones por IRAG por Semana Epidemiológica</t>
+    <t>TITLE</t>
   </si>
   <si>
-    <t>Número de casos IRAG</t>
+    <t>Total hospitalizaciones por todas las causas</t>
+  </si>
+  <si>
+    <t>% Hospitalización entre todas las causas</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -125,6 +128,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -146,7 +156,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -158,7 +168,80 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
@@ -166,7 +249,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="medium">
@@ -182,7 +278,40 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top/>
@@ -198,51 +327,8 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -252,7 +338,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -275,38 +361,56 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="6" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -350,7 +454,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -417,6 +521,174 @@
             </c:strRef>
           </c:tx>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Hoja1!$B$7:$B$59</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="53"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>53</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Hoja1!$C$7:$C$59</c:f>
@@ -585,6 +857,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-56EA-494B-A769-E201A91B9F0B}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -621,7 +898,7 @@
                   </c:strRef>
                 </c:tx>
                 <c:invertIfNegative val="0"/>
-                <c:val>
+                <c:cat>
                   <c:numRef>
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
@@ -794,7 +1071,189 @@
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Hoja1!$B$7:$B$60</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0</c:formatCode>
+                      <c:ptCount val="54"/>
+                      <c:pt idx="0">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>7</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>9</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>11</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>12</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>13</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>14</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>15</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>16</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>17</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>18</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>19</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>20</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>21</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>22</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>23</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>24</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>25</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>26</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>27</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>28</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>29</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>30</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>31</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>32</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>33</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>34</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>35</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>36</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>37</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>38</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>39</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>40</c:v>
+                      </c:pt>
+                      <c:pt idx="40">
+                        <c:v>41</c:v>
+                      </c:pt>
+                      <c:pt idx="41">
+                        <c:v>42</c:v>
+                      </c:pt>
+                      <c:pt idx="42">
+                        <c:v>43</c:v>
+                      </c:pt>
+                      <c:pt idx="43">
+                        <c:v>44</c:v>
+                      </c:pt>
+                      <c:pt idx="44">
+                        <c:v>45</c:v>
+                      </c:pt>
+                      <c:pt idx="45">
+                        <c:v>46</c:v>
+                      </c:pt>
+                      <c:pt idx="46">
+                        <c:v>47</c:v>
+                      </c:pt>
+                      <c:pt idx="47">
+                        <c:v>48</c:v>
+                      </c:pt>
+                      <c:pt idx="48">
+                        <c:v>49</c:v>
+                      </c:pt>
+                      <c:pt idx="49">
+                        <c:v>50</c:v>
+                      </c:pt>
+                      <c:pt idx="50">
+                        <c:v>51</c:v>
+                      </c:pt>
+                      <c:pt idx="51">
+                        <c:v>52</c:v>
+                      </c:pt>
+                      <c:pt idx="52">
+                        <c:v>53</c:v>
+                      </c:pt>
+                      <c:pt idx="53" formatCode="General">
+                        <c:v>0</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
                 </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000002-56EA-494B-A769-E201A91B9F0B}"/>
+                  </c:ext>
+                </c:extLst>
               </c15:ser>
             </c15:filteredBarSeries>
           </c:ext>
@@ -812,7 +1271,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>%  Hospitalización</c:v>
+                  <c:v>% Hospitalización entre todas las causas</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -827,6 +1286,174 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Hoja1!$B$7:$B$59</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="53"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>53</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Hoja1!$E$7:$E$59</c:f>
@@ -996,6 +1623,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-56EA-494B-A769-E201A91B9F0B}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1027,7 +1659,7 @@
                     <c:strCache>
                       <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>Total hospitalizaciones</c:v>
+                        <c:v>Total hospitalizaciones por todas las causas</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -1035,18 +1667,192 @@
                 <c:marker>
                   <c:symbol val="none"/>
                 </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Hoja1!$B$7:$B$59</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0</c:formatCode>
+                      <c:ptCount val="53"/>
+                      <c:pt idx="0">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>7</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>9</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>11</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>12</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>13</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>14</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>15</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>16</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>17</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>18</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>19</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>20</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>21</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>22</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>23</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>24</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>25</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>26</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>27</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>28</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>29</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>30</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>31</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>32</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>33</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>34</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>35</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>36</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>37</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>38</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>39</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>40</c:v>
+                      </c:pt>
+                      <c:pt idx="40">
+                        <c:v>41</c:v>
+                      </c:pt>
+                      <c:pt idx="41">
+                        <c:v>42</c:v>
+                      </c:pt>
+                      <c:pt idx="42">
+                        <c:v>43</c:v>
+                      </c:pt>
+                      <c:pt idx="43">
+                        <c:v>44</c:v>
+                      </c:pt>
+                      <c:pt idx="44">
+                        <c:v>45</c:v>
+                      </c:pt>
+                      <c:pt idx="45">
+                        <c:v>46</c:v>
+                      </c:pt>
+                      <c:pt idx="46">
+                        <c:v>47</c:v>
+                      </c:pt>
+                      <c:pt idx="47">
+                        <c:v>48</c:v>
+                      </c:pt>
+                      <c:pt idx="48">
+                        <c:v>49</c:v>
+                      </c:pt>
+                      <c:pt idx="49">
+                        <c:v>50</c:v>
+                      </c:pt>
+                      <c:pt idx="50">
+                        <c:v>51</c:v>
+                      </c:pt>
+                      <c:pt idx="51">
+                        <c:v>52</c:v>
+                      </c:pt>
+                      <c:pt idx="52">
+                        <c:v>53</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
                 <c:val>
                   <c:numRef>
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Hoja1!$D$7:$D$59</c15:sqref>
+                          <c15:sqref>Hoja1!$D$7:$D$60</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="53"/>
+                      <c:ptCount val="54"/>
                       <c:pt idx="0">
                         <c:v>0</c:v>
                       </c:pt>
@@ -1204,12 +2010,20 @@
                         <c:v>0</c:v>
                       </c:pt>
                       <c:pt idx="52">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="53">
                         <c:v>0</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000003-56EA-494B-A769-E201A91B9F0B}"/>
+                  </c:ext>
+                </c:extLst>
               </c15:ser>
             </c15:filteredLineSeries>
           </c:ext>
@@ -1254,6 +2068,7 @@
             </a:p>
           </c:txPr>
         </c:title>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1356,6 +2171,7 @@
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1706,77 +2522,77 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:O60"/>
+  <dimension ref="A1:O61"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.28515625" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" style="17" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" style="17" customWidth="1"/>
-    <col min="4" max="4" width="14" style="20" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="18" customWidth="1"/>
+    <col min="1" max="1" width="5.7109375" style="25" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" style="10" customWidth="1"/>
+    <col min="3" max="3" width="12" style="10" customWidth="1"/>
+    <col min="4" max="4" width="19.42578125" style="12" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" style="11" customWidth="1"/>
     <col min="6" max="15" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23"/>
-      <c r="N1" s="23"/>
-      <c r="O1" s="23"/>
-    </row>
-    <row r="2" spans="2:15" ht="21" x14ac:dyDescent="0.35">
-      <c r="B2" s="24" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
+      <c r="O1" s="29"/>
+    </row>
+    <row r="2" spans="1:15" ht="21" x14ac:dyDescent="0.35">
+      <c r="B2" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="25"/>
-      <c r="M2" s="25"/>
-      <c r="N2" s="25"/>
-      <c r="O2" s="25"/>
-    </row>
-    <row r="3" spans="2:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="31"/>
+    </row>
+    <row r="3" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B3" s="7" t="s">
         <v>4</v>
       </c>
       <c r="C3"/>
       <c r="D3" s="1"/>
       <c r="E3"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-    </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B4" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B4" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
       <c r="J4" s="2"/>
     </row>
-    <row r="5" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="5" t="s">
         <v>3</v>
       </c>
@@ -1787,18 +2603,19 @@
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
     </row>
-    <row r="6" spans="2:15" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="10" t="s">
+    <row r="6" spans="1:15" s="6" customFormat="1" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="25"/>
+      <c r="B6" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>6</v>
+      <c r="E6" s="13" t="s">
+        <v>9</v>
       </c>
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
@@ -1811,18 +2628,18 @@
       <c r="N6" s="8"/>
       <c r="O6" s="8"/>
     </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B7" s="16">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B7" s="17">
         <v>1</v>
       </c>
-      <c r="C7" s="19">
-        <v>0</v>
-      </c>
-      <c r="D7" s="19">
-        <v>0</v>
-      </c>
-      <c r="E7" s="15">
-        <f>IF(D7&lt;=0,0, C7*100/D7)</f>
+      <c r="C7" s="18">
+        <v>0</v>
+      </c>
+      <c r="D7" s="18">
+        <v>0</v>
+      </c>
+      <c r="E7" s="19">
+        <f>IF(D7&lt;=0,0, ROUND(C7*100/D7, 0))</f>
         <v>0</v>
       </c>
       <c r="F7" s="9"/>
@@ -1836,18 +2653,18 @@
       <c r="N7" s="9"/>
       <c r="O7" s="9"/>
     </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B8" s="16">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B8" s="20">
         <v>2</v>
       </c>
-      <c r="C8" s="19">
-        <v>0</v>
-      </c>
-      <c r="D8" s="19">
-        <v>0</v>
-      </c>
-      <c r="E8" s="15">
-        <f t="shared" ref="E8:E23" si="0">IF(D8&lt;=0,0, C8*100/D8)</f>
+      <c r="C8" s="21">
+        <v>0</v>
+      </c>
+      <c r="D8" s="21">
+        <v>0</v>
+      </c>
+      <c r="E8" s="22">
+        <f>IF(D8&lt;=0,0, ROUND(C8*100/D8,0))</f>
         <v>0</v>
       </c>
       <c r="F8" s="9"/>
@@ -1861,18 +2678,18 @@
       <c r="N8" s="9"/>
       <c r="O8" s="9"/>
     </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B9" s="16">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B9" s="20">
         <v>3</v>
       </c>
-      <c r="C9" s="19">
-        <v>0</v>
-      </c>
-      <c r="D9" s="19">
-        <v>0</v>
-      </c>
-      <c r="E9" s="15">
-        <f t="shared" si="0"/>
+      <c r="C9" s="21">
+        <v>0</v>
+      </c>
+      <c r="D9" s="21">
+        <v>0</v>
+      </c>
+      <c r="E9" s="22">
+        <f t="shared" ref="E9:E60" si="0">IF(D9&lt;=0,0, ROUND(C9*100/D9,0))</f>
         <v>0</v>
       </c>
       <c r="F9" s="9"/>
@@ -1886,17 +2703,17 @@
       <c r="N9" s="9"/>
       <c r="O9" s="9"/>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B10" s="16">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B10" s="20">
         <v>4</v>
       </c>
-      <c r="C10" s="19">
-        <v>0</v>
-      </c>
-      <c r="D10" s="19">
-        <v>0</v>
-      </c>
-      <c r="E10" s="15">
+      <c r="C10" s="21">
+        <v>0</v>
+      </c>
+      <c r="D10" s="21">
+        <v>0</v>
+      </c>
+      <c r="E10" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1911,17 +2728,17 @@
       <c r="N10" s="9"/>
       <c r="O10" s="9"/>
     </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B11" s="16">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B11" s="20">
         <v>5</v>
       </c>
-      <c r="C11" s="19">
-        <v>0</v>
-      </c>
-      <c r="D11" s="19">
-        <v>0</v>
-      </c>
-      <c r="E11" s="15">
+      <c r="C11" s="21">
+        <v>0</v>
+      </c>
+      <c r="D11" s="21">
+        <v>0</v>
+      </c>
+      <c r="E11" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1936,17 +2753,17 @@
       <c r="N11" s="9"/>
       <c r="O11" s="9"/>
     </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B12" s="16">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B12" s="20">
         <v>6</v>
       </c>
-      <c r="C12" s="19">
-        <v>0</v>
-      </c>
-      <c r="D12" s="19">
-        <v>0</v>
-      </c>
-      <c r="E12" s="15">
+      <c r="C12" s="21">
+        <v>0</v>
+      </c>
+      <c r="D12" s="21">
+        <v>0</v>
+      </c>
+      <c r="E12" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1961,17 +2778,17 @@
       <c r="N12" s="9"/>
       <c r="O12" s="9"/>
     </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B13" s="16">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B13" s="20">
         <v>7</v>
       </c>
-      <c r="C13" s="19">
-        <v>0</v>
-      </c>
-      <c r="D13" s="19">
-        <v>0</v>
-      </c>
-      <c r="E13" s="15">
+      <c r="C13" s="21">
+        <v>0</v>
+      </c>
+      <c r="D13" s="21">
+        <v>0</v>
+      </c>
+      <c r="E13" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1986,17 +2803,17 @@
       <c r="N13" s="9"/>
       <c r="O13" s="9"/>
     </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B14" s="16">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B14" s="20">
         <v>8</v>
       </c>
-      <c r="C14" s="19">
-        <v>0</v>
-      </c>
-      <c r="D14" s="19">
-        <v>0</v>
-      </c>
-      <c r="E14" s="15">
+      <c r="C14" s="21">
+        <v>0</v>
+      </c>
+      <c r="D14" s="21">
+        <v>0</v>
+      </c>
+      <c r="E14" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2011,17 +2828,17 @@
       <c r="N14" s="9"/>
       <c r="O14" s="9"/>
     </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B15" s="16">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B15" s="20">
         <v>9</v>
       </c>
-      <c r="C15" s="19">
-        <v>0</v>
-      </c>
-      <c r="D15" s="19">
-        <v>0</v>
-      </c>
-      <c r="E15" s="15">
+      <c r="C15" s="21">
+        <v>0</v>
+      </c>
+      <c r="D15" s="21">
+        <v>0</v>
+      </c>
+      <c r="E15" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2036,17 +2853,17 @@
       <c r="N15" s="9"/>
       <c r="O15" s="9"/>
     </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B16" s="16">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B16" s="20">
         <v>10</v>
       </c>
-      <c r="C16" s="19">
-        <v>0</v>
-      </c>
-      <c r="D16" s="19">
-        <v>0</v>
-      </c>
-      <c r="E16" s="15">
+      <c r="C16" s="21">
+        <v>0</v>
+      </c>
+      <c r="D16" s="21">
+        <v>0</v>
+      </c>
+      <c r="E16" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2062,16 +2879,16 @@
       <c r="O16" s="9"/>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B17" s="16">
+      <c r="B17" s="20">
         <v>11</v>
       </c>
-      <c r="C17" s="19">
-        <v>0</v>
-      </c>
-      <c r="D17" s="19">
-        <v>0</v>
-      </c>
-      <c r="E17" s="15">
+      <c r="C17" s="21">
+        <v>0</v>
+      </c>
+      <c r="D17" s="21">
+        <v>0</v>
+      </c>
+      <c r="E17" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2087,16 +2904,17 @@
       <c r="O17" s="9"/>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B18" s="16">
+      <c r="B18" s="20">
         <v>12</v>
       </c>
-      <c r="C18" s="19">
-        <v>0</v>
-      </c>
-      <c r="D18" s="19">
-        <v>0</v>
-      </c>
-      <c r="E18" s="15">
+      <c r="C18" s="21">
+        <v>0</v>
+      </c>
+      <c r="D18" s="21">
+        <v>0</v>
+      </c>
+      <c r="E18" s="22">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F18" s="9"/>
@@ -2111,16 +2929,16 @@
       <c r="O18" s="9"/>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B19" s="16">
+      <c r="B19" s="20">
         <v>13</v>
       </c>
-      <c r="C19" s="19">
-        <v>0</v>
-      </c>
-      <c r="D19" s="19">
-        <v>0</v>
-      </c>
-      <c r="E19" s="15">
+      <c r="C19" s="21">
+        <v>0</v>
+      </c>
+      <c r="D19" s="21">
+        <v>0</v>
+      </c>
+      <c r="E19" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2136,16 +2954,16 @@
       <c r="O19" s="9"/>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B20" s="16">
+      <c r="B20" s="20">
         <v>14</v>
       </c>
-      <c r="C20" s="19">
-        <v>0</v>
-      </c>
-      <c r="D20" s="19">
-        <v>0</v>
-      </c>
-      <c r="E20" s="15">
+      <c r="C20" s="21">
+        <v>0</v>
+      </c>
+      <c r="D20" s="21">
+        <v>0</v>
+      </c>
+      <c r="E20" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2161,18 +2979,17 @@
       <c r="O20" s="9"/>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B21" s="16">
+      <c r="B21" s="20">
         <v>15</v>
       </c>
-      <c r="C21" s="19">
-        <v>0</v>
-      </c>
-      <c r="D21" s="19">
-        <v>0</v>
-      </c>
-      <c r="E21" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="C21" s="21">
+        <v>0</v>
+      </c>
+      <c r="D21" s="21">
+        <v>0</v>
+      </c>
+      <c r="E21" s="22" t="s">
+        <v>6</v>
       </c>
       <c r="F21" s="9"/>
       <c r="G21" s="9"/>
@@ -2186,16 +3003,16 @@
       <c r="O21" s="9"/>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B22" s="16">
+      <c r="B22" s="20">
         <v>16</v>
       </c>
-      <c r="C22" s="19">
-        <v>0</v>
-      </c>
-      <c r="D22" s="19">
-        <v>0</v>
-      </c>
-      <c r="E22" s="15">
+      <c r="C22" s="21">
+        <v>0</v>
+      </c>
+      <c r="D22" s="21">
+        <v>0</v>
+      </c>
+      <c r="E22" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2211,16 +3028,16 @@
       <c r="O22" s="9"/>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B23" s="16">
+      <c r="B23" s="20">
         <v>17</v>
       </c>
-      <c r="C23" s="19">
-        <v>0</v>
-      </c>
-      <c r="D23" s="19">
-        <v>0</v>
-      </c>
-      <c r="E23" s="15">
+      <c r="C23" s="21">
+        <v>0</v>
+      </c>
+      <c r="D23" s="21">
+        <v>0</v>
+      </c>
+      <c r="E23" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2236,17 +3053,17 @@
       <c r="O23" s="9"/>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B24" s="16">
+      <c r="B24" s="20">
         <v>18</v>
       </c>
-      <c r="C24" s="19">
-        <v>0</v>
-      </c>
-      <c r="D24" s="19">
-        <v>0</v>
-      </c>
-      <c r="E24" s="15">
-        <f t="shared" ref="E24:E58" si="1">IF(D24&lt;=0,0, C24*100/D24)</f>
+      <c r="C24" s="21">
+        <v>0</v>
+      </c>
+      <c r="D24" s="21">
+        <v>0</v>
+      </c>
+      <c r="E24" s="22">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F24" s="9"/>
@@ -2261,17 +3078,17 @@
       <c r="O24" s="9"/>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B25" s="16">
+      <c r="B25" s="20">
         <v>19</v>
       </c>
-      <c r="C25" s="19">
-        <v>0</v>
-      </c>
-      <c r="D25" s="19">
-        <v>0</v>
-      </c>
-      <c r="E25" s="15">
-        <f t="shared" si="1"/>
+      <c r="C25" s="21">
+        <v>0</v>
+      </c>
+      <c r="D25" s="21">
+        <v>0</v>
+      </c>
+      <c r="E25" s="22">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F25" s="9"/>
@@ -2286,17 +3103,17 @@
       <c r="O25" s="9"/>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B26" s="16">
+      <c r="B26" s="20">
         <v>20</v>
       </c>
-      <c r="C26" s="19">
-        <v>0</v>
-      </c>
-      <c r="D26" s="19">
-        <v>0</v>
-      </c>
-      <c r="E26" s="15">
-        <f t="shared" si="1"/>
+      <c r="C26" s="21">
+        <v>0</v>
+      </c>
+      <c r="D26" s="21">
+        <v>0</v>
+      </c>
+      <c r="E26" s="22">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F26" s="9"/>
@@ -2311,17 +3128,17 @@
       <c r="O26" s="9"/>
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B27" s="16">
+      <c r="B27" s="20">
         <v>21</v>
       </c>
-      <c r="C27" s="19">
-        <v>0</v>
-      </c>
-      <c r="D27" s="19">
-        <v>0</v>
-      </c>
-      <c r="E27" s="15">
-        <f t="shared" si="1"/>
+      <c r="C27" s="21">
+        <v>0</v>
+      </c>
+      <c r="D27" s="21">
+        <v>0</v>
+      </c>
+      <c r="E27" s="22">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F27" s="9"/>
@@ -2336,17 +3153,17 @@
       <c r="O27" s="9"/>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B28" s="16">
+      <c r="B28" s="20">
         <v>22</v>
       </c>
-      <c r="C28" s="19">
-        <v>0</v>
-      </c>
-      <c r="D28" s="19">
-        <v>0</v>
-      </c>
-      <c r="E28" s="15">
-        <f t="shared" si="1"/>
+      <c r="C28" s="21">
+        <v>0</v>
+      </c>
+      <c r="D28" s="21">
+        <v>0</v>
+      </c>
+      <c r="E28" s="22">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F28" s="9"/>
@@ -2361,17 +3178,17 @@
       <c r="O28" s="9"/>
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B29" s="16">
+      <c r="B29" s="20">
         <v>23</v>
       </c>
-      <c r="C29" s="19">
-        <v>0</v>
-      </c>
-      <c r="D29" s="19">
-        <v>0</v>
-      </c>
-      <c r="E29" s="15">
-        <f t="shared" si="1"/>
+      <c r="C29" s="21">
+        <v>0</v>
+      </c>
+      <c r="D29" s="21">
+        <v>0</v>
+      </c>
+      <c r="E29" s="22">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F29" s="9"/>
@@ -2386,17 +3203,17 @@
       <c r="O29" s="9"/>
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B30" s="16">
+      <c r="B30" s="20">
         <v>24</v>
       </c>
-      <c r="C30" s="19">
-        <v>0</v>
-      </c>
-      <c r="D30" s="19">
-        <v>0</v>
-      </c>
-      <c r="E30" s="15">
-        <f t="shared" si="1"/>
+      <c r="C30" s="21">
+        <v>0</v>
+      </c>
+      <c r="D30" s="21">
+        <v>0</v>
+      </c>
+      <c r="E30" s="22">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F30" s="9"/>
@@ -2411,17 +3228,17 @@
       <c r="O30" s="9"/>
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B31" s="16">
+      <c r="B31" s="20">
         <v>25</v>
       </c>
-      <c r="C31" s="19">
-        <v>0</v>
-      </c>
-      <c r="D31" s="19">
-        <v>0</v>
-      </c>
-      <c r="E31" s="15">
-        <f t="shared" si="1"/>
+      <c r="C31" s="21">
+        <v>0</v>
+      </c>
+      <c r="D31" s="21">
+        <v>0</v>
+      </c>
+      <c r="E31" s="22">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F31" s="9"/>
@@ -2436,17 +3253,17 @@
       <c r="O31" s="9"/>
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B32" s="16">
+      <c r="B32" s="20">
         <v>26</v>
       </c>
-      <c r="C32" s="19">
-        <v>0</v>
-      </c>
-      <c r="D32" s="19">
-        <v>0</v>
-      </c>
-      <c r="E32" s="15">
-        <f t="shared" si="1"/>
+      <c r="C32" s="21">
+        <v>0</v>
+      </c>
+      <c r="D32" s="21">
+        <v>0</v>
+      </c>
+      <c r="E32" s="22">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F32" s="9"/>
@@ -2461,17 +3278,17 @@
       <c r="O32" s="9"/>
     </row>
     <row r="33" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B33" s="16">
+      <c r="B33" s="20">
         <v>27</v>
       </c>
-      <c r="C33" s="19">
-        <v>0</v>
-      </c>
-      <c r="D33" s="19">
-        <v>0</v>
-      </c>
-      <c r="E33" s="15">
-        <f t="shared" si="1"/>
+      <c r="C33" s="21">
+        <v>0</v>
+      </c>
+      <c r="D33" s="21">
+        <v>0</v>
+      </c>
+      <c r="E33" s="22">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F33" s="9"/>
@@ -2486,17 +3303,17 @@
       <c r="O33" s="9"/>
     </row>
     <row r="34" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B34" s="16">
+      <c r="B34" s="20">
         <v>28</v>
       </c>
-      <c r="C34" s="19">
-        <v>0</v>
-      </c>
-      <c r="D34" s="19">
-        <v>0</v>
-      </c>
-      <c r="E34" s="15">
-        <f t="shared" si="1"/>
+      <c r="C34" s="21">
+        <v>0</v>
+      </c>
+      <c r="D34" s="21">
+        <v>0</v>
+      </c>
+      <c r="E34" s="22">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F34" s="9"/>
@@ -2511,17 +3328,17 @@
       <c r="O34" s="9"/>
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B35" s="16">
+      <c r="B35" s="20">
         <v>29</v>
       </c>
-      <c r="C35" s="19">
-        <v>0</v>
-      </c>
-      <c r="D35" s="19">
-        <v>0</v>
-      </c>
-      <c r="E35" s="15">
-        <f t="shared" si="1"/>
+      <c r="C35" s="21">
+        <v>0</v>
+      </c>
+      <c r="D35" s="21">
+        <v>0</v>
+      </c>
+      <c r="E35" s="22">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F35" s="9"/>
@@ -2536,17 +3353,17 @@
       <c r="O35" s="9"/>
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B36" s="16">
+      <c r="B36" s="20">
         <v>30</v>
       </c>
-      <c r="C36" s="19">
-        <v>0</v>
-      </c>
-      <c r="D36" s="19">
-        <v>0</v>
-      </c>
-      <c r="E36" s="15">
-        <f t="shared" si="1"/>
+      <c r="C36" s="21">
+        <v>0</v>
+      </c>
+      <c r="D36" s="21">
+        <v>0</v>
+      </c>
+      <c r="E36" s="22">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F36" s="9"/>
@@ -2561,17 +3378,17 @@
       <c r="O36" s="9"/>
     </row>
     <row r="37" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B37" s="16">
+      <c r="B37" s="20">
         <v>31</v>
       </c>
-      <c r="C37" s="19">
-        <v>0</v>
-      </c>
-      <c r="D37" s="19">
-        <v>0</v>
-      </c>
-      <c r="E37" s="15">
-        <f t="shared" si="1"/>
+      <c r="C37" s="21">
+        <v>0</v>
+      </c>
+      <c r="D37" s="21">
+        <v>0</v>
+      </c>
+      <c r="E37" s="22">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F37" s="9"/>
@@ -2586,17 +3403,17 @@
       <c r="O37" s="9"/>
     </row>
     <row r="38" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B38" s="16">
+      <c r="B38" s="20">
         <v>32</v>
       </c>
-      <c r="C38" s="19">
-        <v>0</v>
-      </c>
-      <c r="D38" s="19">
-        <v>0</v>
-      </c>
-      <c r="E38" s="15">
-        <f t="shared" si="1"/>
+      <c r="C38" s="21">
+        <v>0</v>
+      </c>
+      <c r="D38" s="21">
+        <v>0</v>
+      </c>
+      <c r="E38" s="22">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F38" s="9"/>
@@ -2611,17 +3428,17 @@
       <c r="O38" s="9"/>
     </row>
     <row r="39" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B39" s="16">
+      <c r="B39" s="20">
         <v>33</v>
       </c>
-      <c r="C39" s="19">
-        <v>0</v>
-      </c>
-      <c r="D39" s="19">
-        <v>0</v>
-      </c>
-      <c r="E39" s="15">
-        <f t="shared" si="1"/>
+      <c r="C39" s="21">
+        <v>0</v>
+      </c>
+      <c r="D39" s="21">
+        <v>0</v>
+      </c>
+      <c r="E39" s="22">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F39" s="9"/>
@@ -2636,17 +3453,17 @@
       <c r="O39" s="9"/>
     </row>
     <row r="40" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B40" s="16">
+      <c r="B40" s="20">
         <v>34</v>
       </c>
-      <c r="C40" s="19">
-        <v>0</v>
-      </c>
-      <c r="D40" s="19">
-        <v>0</v>
-      </c>
-      <c r="E40" s="15">
-        <f t="shared" si="1"/>
+      <c r="C40" s="21">
+        <v>0</v>
+      </c>
+      <c r="D40" s="21">
+        <v>0</v>
+      </c>
+      <c r="E40" s="22">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F40" s="9"/>
@@ -2661,17 +3478,17 @@
       <c r="O40" s="9"/>
     </row>
     <row r="41" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B41" s="16">
+      <c r="B41" s="20">
         <v>35</v>
       </c>
-      <c r="C41" s="19">
-        <v>0</v>
-      </c>
-      <c r="D41" s="19">
-        <v>0</v>
-      </c>
-      <c r="E41" s="15">
-        <f t="shared" si="1"/>
+      <c r="C41" s="21">
+        <v>0</v>
+      </c>
+      <c r="D41" s="21">
+        <v>0</v>
+      </c>
+      <c r="E41" s="22">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F41" s="9"/>
@@ -2686,17 +3503,17 @@
       <c r="O41" s="9"/>
     </row>
     <row r="42" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B42" s="16">
+      <c r="B42" s="20">
         <v>36</v>
       </c>
-      <c r="C42" s="19">
-        <v>0</v>
-      </c>
-      <c r="D42" s="19">
-        <v>0</v>
-      </c>
-      <c r="E42" s="15">
-        <f t="shared" si="1"/>
+      <c r="C42" s="21">
+        <v>0</v>
+      </c>
+      <c r="D42" s="21">
+        <v>0</v>
+      </c>
+      <c r="E42" s="22">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F42" s="9"/>
@@ -2711,17 +3528,17 @@
       <c r="O42" s="9"/>
     </row>
     <row r="43" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B43" s="16">
+      <c r="B43" s="20">
         <v>37</v>
       </c>
-      <c r="C43" s="19">
-        <v>0</v>
-      </c>
-      <c r="D43" s="19">
-        <v>0</v>
-      </c>
-      <c r="E43" s="15">
-        <f t="shared" si="1"/>
+      <c r="C43" s="21">
+        <v>0</v>
+      </c>
+      <c r="D43" s="21">
+        <v>0</v>
+      </c>
+      <c r="E43" s="22">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F43" s="9"/>
@@ -2736,17 +3553,17 @@
       <c r="O43" s="9"/>
     </row>
     <row r="44" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B44" s="16">
+      <c r="B44" s="20">
         <v>38</v>
       </c>
-      <c r="C44" s="19">
-        <v>0</v>
-      </c>
-      <c r="D44" s="19">
-        <v>0</v>
-      </c>
-      <c r="E44" s="15">
-        <f t="shared" si="1"/>
+      <c r="C44" s="21">
+        <v>0</v>
+      </c>
+      <c r="D44" s="21">
+        <v>0</v>
+      </c>
+      <c r="E44" s="22">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F44" s="9"/>
@@ -2761,17 +3578,17 @@
       <c r="O44" s="9"/>
     </row>
     <row r="45" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B45" s="16">
+      <c r="B45" s="20">
         <v>39</v>
       </c>
-      <c r="C45" s="19">
-        <v>0</v>
-      </c>
-      <c r="D45" s="19">
-        <v>0</v>
-      </c>
-      <c r="E45" s="15">
-        <f t="shared" si="1"/>
+      <c r="C45" s="21">
+        <v>0</v>
+      </c>
+      <c r="D45" s="21">
+        <v>0</v>
+      </c>
+      <c r="E45" s="22">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F45" s="9"/>
@@ -2786,17 +3603,17 @@
       <c r="O45" s="9"/>
     </row>
     <row r="46" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B46" s="16">
+      <c r="B46" s="20">
         <v>40</v>
       </c>
-      <c r="C46" s="19">
-        <v>0</v>
-      </c>
-      <c r="D46" s="19">
-        <v>0</v>
-      </c>
-      <c r="E46" s="15">
-        <f t="shared" si="1"/>
+      <c r="C46" s="21">
+        <v>0</v>
+      </c>
+      <c r="D46" s="21">
+        <v>0</v>
+      </c>
+      <c r="E46" s="22">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F46" s="9"/>
@@ -2811,17 +3628,17 @@
       <c r="O46" s="9"/>
     </row>
     <row r="47" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B47" s="16">
+      <c r="B47" s="20">
         <v>41</v>
       </c>
-      <c r="C47" s="19">
-        <v>0</v>
-      </c>
-      <c r="D47" s="19">
-        <v>0</v>
-      </c>
-      <c r="E47" s="15">
-        <f t="shared" si="1"/>
+      <c r="C47" s="21">
+        <v>0</v>
+      </c>
+      <c r="D47" s="21">
+        <v>0</v>
+      </c>
+      <c r="E47" s="22">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F47" s="9"/>
@@ -2836,17 +3653,17 @@
       <c r="O47" s="9"/>
     </row>
     <row r="48" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B48" s="16">
+      <c r="B48" s="20">
         <v>42</v>
       </c>
-      <c r="C48" s="19">
-        <v>0</v>
-      </c>
-      <c r="D48" s="19">
-        <v>0</v>
-      </c>
-      <c r="E48" s="15">
-        <f t="shared" si="1"/>
+      <c r="C48" s="21">
+        <v>0</v>
+      </c>
+      <c r="D48" s="21">
+        <v>0</v>
+      </c>
+      <c r="E48" s="22">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F48" s="9"/>
@@ -2861,17 +3678,17 @@
       <c r="O48" s="9"/>
     </row>
     <row r="49" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B49" s="16">
+      <c r="B49" s="20">
         <v>43</v>
       </c>
-      <c r="C49" s="19">
-        <v>0</v>
-      </c>
-      <c r="D49" s="19">
-        <v>0</v>
-      </c>
-      <c r="E49" s="15">
-        <f t="shared" si="1"/>
+      <c r="C49" s="21">
+        <v>0</v>
+      </c>
+      <c r="D49" s="21">
+        <v>0</v>
+      </c>
+      <c r="E49" s="22">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F49" s="9"/>
@@ -2886,17 +3703,17 @@
       <c r="O49" s="9"/>
     </row>
     <row r="50" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B50" s="16">
+      <c r="B50" s="20">
         <v>44</v>
       </c>
-      <c r="C50" s="19">
-        <v>0</v>
-      </c>
-      <c r="D50" s="19">
-        <v>0</v>
-      </c>
-      <c r="E50" s="15">
-        <f t="shared" si="1"/>
+      <c r="C50" s="21">
+        <v>0</v>
+      </c>
+      <c r="D50" s="21">
+        <v>0</v>
+      </c>
+      <c r="E50" s="22">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F50" s="9"/>
@@ -2911,17 +3728,17 @@
       <c r="O50" s="9"/>
     </row>
     <row r="51" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B51" s="16">
+      <c r="B51" s="20">
         <v>45</v>
       </c>
-      <c r="C51" s="19">
-        <v>0</v>
-      </c>
-      <c r="D51" s="19">
-        <v>0</v>
-      </c>
-      <c r="E51" s="15">
-        <f t="shared" si="1"/>
+      <c r="C51" s="21">
+        <v>0</v>
+      </c>
+      <c r="D51" s="21">
+        <v>0</v>
+      </c>
+      <c r="E51" s="22">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F51" s="9"/>
@@ -2936,17 +3753,17 @@
       <c r="O51" s="9"/>
     </row>
     <row r="52" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B52" s="16">
+      <c r="B52" s="20">
         <v>46</v>
       </c>
-      <c r="C52" s="19">
-        <v>0</v>
-      </c>
-      <c r="D52" s="19">
-        <v>0</v>
-      </c>
-      <c r="E52" s="15">
-        <f t="shared" si="1"/>
+      <c r="C52" s="21">
+        <v>0</v>
+      </c>
+      <c r="D52" s="21">
+        <v>0</v>
+      </c>
+      <c r="E52" s="22">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F52" s="9"/>
@@ -2961,17 +3778,17 @@
       <c r="O52" s="9"/>
     </row>
     <row r="53" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B53" s="16">
+      <c r="B53" s="20">
         <v>47</v>
       </c>
-      <c r="C53" s="19">
-        <v>0</v>
-      </c>
-      <c r="D53" s="19">
-        <v>0</v>
-      </c>
-      <c r="E53" s="15">
-        <f t="shared" si="1"/>
+      <c r="C53" s="21">
+        <v>0</v>
+      </c>
+      <c r="D53" s="21">
+        <v>0</v>
+      </c>
+      <c r="E53" s="22">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F53" s="9"/>
@@ -2986,17 +3803,17 @@
       <c r="O53" s="9"/>
     </row>
     <row r="54" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B54" s="16">
+      <c r="B54" s="20">
         <v>48</v>
       </c>
-      <c r="C54" s="19">
-        <v>0</v>
-      </c>
-      <c r="D54" s="19">
-        <v>0</v>
-      </c>
-      <c r="E54" s="15">
-        <f t="shared" si="1"/>
+      <c r="C54" s="21">
+        <v>0</v>
+      </c>
+      <c r="D54" s="21">
+        <v>0</v>
+      </c>
+      <c r="E54" s="22">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F54" s="9"/>
@@ -3011,17 +3828,17 @@
       <c r="O54" s="9"/>
     </row>
     <row r="55" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B55" s="16">
+      <c r="B55" s="20">
         <v>49</v>
       </c>
-      <c r="C55" s="19">
-        <v>0</v>
-      </c>
-      <c r="D55" s="19">
-        <v>0</v>
-      </c>
-      <c r="E55" s="15">
-        <f t="shared" si="1"/>
+      <c r="C55" s="21">
+        <v>0</v>
+      </c>
+      <c r="D55" s="21">
+        <v>0</v>
+      </c>
+      <c r="E55" s="22">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F55" s="9"/>
@@ -3036,17 +3853,17 @@
       <c r="O55" s="9"/>
     </row>
     <row r="56" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B56" s="16">
+      <c r="B56" s="20">
         <v>50</v>
       </c>
-      <c r="C56" s="19">
-        <v>0</v>
-      </c>
-      <c r="D56" s="19">
-        <v>0</v>
-      </c>
-      <c r="E56" s="15">
-        <f t="shared" si="1"/>
+      <c r="C56" s="21">
+        <v>0</v>
+      </c>
+      <c r="D56" s="21">
+        <v>0</v>
+      </c>
+      <c r="E56" s="22">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F56" s="9"/>
@@ -3061,17 +3878,17 @@
       <c r="O56" s="9"/>
     </row>
     <row r="57" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B57" s="16">
+      <c r="B57" s="20">
         <v>51</v>
       </c>
-      <c r="C57" s="19">
-        <v>0</v>
-      </c>
-      <c r="D57" s="19">
-        <v>0</v>
-      </c>
-      <c r="E57" s="15">
-        <f t="shared" si="1"/>
+      <c r="C57" s="21">
+        <v>0</v>
+      </c>
+      <c r="D57" s="21">
+        <v>0</v>
+      </c>
+      <c r="E57" s="22">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F57" s="9"/>
@@ -3086,17 +3903,17 @@
       <c r="O57" s="9"/>
     </row>
     <row r="58" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B58" s="16">
+      <c r="B58" s="20">
         <v>52</v>
       </c>
-      <c r="C58" s="19">
-        <v>0</v>
-      </c>
-      <c r="D58" s="19">
-        <v>0</v>
-      </c>
-      <c r="E58" s="15">
-        <f t="shared" si="1"/>
+      <c r="C58" s="21">
+        <v>0</v>
+      </c>
+      <c r="D58" s="21">
+        <v>0</v>
+      </c>
+      <c r="E58" s="22">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F58" s="9"/>
@@ -3110,18 +3927,18 @@
       <c r="N58" s="9"/>
       <c r="O58" s="9"/>
     </row>
-    <row r="59" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B59" s="16">
+    <row r="59" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B59" s="23">
         <v>53</v>
       </c>
-      <c r="C59" s="19">
-        <v>0</v>
-      </c>
-      <c r="D59" s="19">
-        <v>0</v>
-      </c>
-      <c r="E59" s="15">
-        <f>IF(D59&lt;=0,0, C59*100/D59)</f>
+      <c r="C59" s="24">
+        <v>0</v>
+      </c>
+      <c r="D59" s="24">
+        <v>0</v>
+      </c>
+      <c r="E59" s="22">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F59" s="9"/>
@@ -3136,31 +3953,43 @@
       <c r="O59" s="9"/>
     </row>
     <row r="60" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="12" t="s">
+      <c r="B60" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C60" s="13">
+      <c r="C60" s="15">
         <f>SUM(C7:C59)</f>
         <v>0</v>
       </c>
-      <c r="D60" s="13">
+      <c r="D60" s="16">
         <f>SUM(D7:D59)</f>
         <v>0</v>
       </c>
-      <c r="E60" s="14">
-        <f>IF(C60=0,0,IF(D60=0,0,(C60/D60*100)))</f>
-        <v>0</v>
-      </c>
-      <c r="F60" s="8"/>
-      <c r="G60" s="8"/>
-      <c r="H60" s="8"/>
-      <c r="I60" s="8"/>
-      <c r="J60" s="8"/>
-      <c r="K60" s="8"/>
-      <c r="L60" s="8"/>
-      <c r="M60" s="8"/>
-      <c r="N60" s="8"/>
-      <c r="O60" s="8"/>
+      <c r="E60" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F60" s="9"/>
+      <c r="G60" s="9"/>
+      <c r="H60" s="9"/>
+      <c r="I60" s="9"/>
+      <c r="J60" s="9"/>
+      <c r="K60" s="9"/>
+      <c r="L60" s="9"/>
+      <c r="M60" s="9"/>
+      <c r="N60" s="9"/>
+      <c r="O60" s="9"/>
+    </row>
+    <row r="61" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="F61" s="8"/>
+      <c r="G61" s="8"/>
+      <c r="H61" s="8"/>
+      <c r="I61" s="8"/>
+      <c r="J61" s="8"/>
+      <c r="K61" s="8"/>
+      <c r="L61" s="8"/>
+      <c r="M61" s="8"/>
+      <c r="N61" s="8"/>
+      <c r="O61" s="8"/>
     </row>
   </sheetData>
   <sortState ref="B21:C33">
